--- a/NBASEASONSUMMARY/NBA2013-2014.xlsx
+++ b/NBASEASONSUMMARY/NBA2013-2014.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>TEAM</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>PFD</t>
+  </si>
+  <si>
+    <t>plus/minus</t>
   </si>
   <si>
     <t>Washington Wizards</t>
@@ -185,7 +188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -195,6 +198,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -217,7 +221,9 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -513,14 +519,13 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="str">
-        <f>+/-</f>
-        <v>#ERROR!</v>
+      <c r="AA1" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1">
         <v>82.0</v>
@@ -603,7 +608,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
         <v>82.0</v>
@@ -686,7 +691,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1">
         <v>82.0</v>
@@ -769,7 +774,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1">
         <v>82.0</v>
@@ -852,7 +857,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1">
         <v>82.0</v>
@@ -935,7 +940,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1">
         <v>82.0</v>
@@ -1018,7 +1023,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1">
         <v>82.0</v>
@@ -1101,7 +1106,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1">
         <v>82.0</v>
@@ -1184,7 +1189,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1">
         <v>82.0</v>
@@ -1267,7 +1272,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1">
         <v>82.0</v>
@@ -1350,7 +1355,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1">
         <v>82.0</v>
@@ -1433,7 +1438,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1">
         <v>82.0</v>
@@ -1516,7 +1521,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1">
         <v>82.0</v>
@@ -1599,7 +1604,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1">
         <v>82.0</v>
@@ -1682,7 +1687,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="1">
         <v>82.0</v>
@@ -1765,7 +1770,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1">
         <v>82.0</v>
@@ -1848,7 +1853,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1">
         <v>82.0</v>
@@ -1931,7 +1936,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B19" s="1">
         <v>82.0</v>
@@ -2014,7 +2019,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1">
         <v>82.0</v>
@@ -2097,7 +2102,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1">
         <v>82.0</v>
@@ -2180,7 +2185,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="1">
         <v>82.0</v>
@@ -2263,7 +2268,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1">
         <v>82.0</v>
@@ -2346,7 +2351,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1">
         <v>82.0</v>
@@ -2429,7 +2434,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B25" s="1">
         <v>82.0</v>
@@ -2512,7 +2517,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1">
         <v>82.0</v>
@@ -2595,7 +2600,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1">
         <v>82.0</v>
@@ -2678,7 +2683,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" s="1">
         <v>82.0</v>
@@ -2761,7 +2766,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" s="1">
         <v>82.0</v>
@@ -2844,7 +2849,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" s="1">
         <v>82.0</v>
@@ -2927,7 +2932,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1">
         <v>82.0</v>
